--- a/testData/labelsMIN.xlsx
+++ b/testData/labelsMIN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,19 +628,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>grt</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>grt</t>
+          <t>analcime</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>grt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>gr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,19 +688,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>px</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>px</t>
+          <t>grt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PX</t>
+          <t>px</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Px</t>
+          <t>PX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cpx</t>
+          <t>Px</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CPX</t>
+          <t>cpx</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CPx</t>
+          <t>CPX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pyroxene</t>
+          <t>CPx</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jd</t>
+          <t>pyroxene</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>jd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>omp</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>om</t>
+          <t>omp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>omph</t>
+          <t>om</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>acm</t>
+          <t>omph</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>aeg</t>
+          <t>acm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>agt</t>
+          <t>aeg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>augite</t>
+          <t>agt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>acmite</t>
+          <t>augite</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPX</t>
+          <t>acmite</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>opx</t>
+          <t>OPX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Opx</t>
+          <t>opx</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OPx</t>
+          <t>Opx</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,19 +940,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ky</t>
+          <t>OPx</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>als</t>
+          <t>px</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>ky</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sill</t>
+          <t>and</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sil</t>
+          <t>sill</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>als</t>
+          <t>sil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>al2sio5</t>
+          <t>als</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>And</t>
+          <t>al2sio5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sil</t>
+          <t>And</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sill</t>
+          <t>Sil</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>Sill</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,19 +1072,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>as</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>als</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bt11</t>
+          <t>bt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>bt11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bi</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>bi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>BT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,19 +1156,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>wm</t>
+          <t>bt</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Wm</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mica</t>
+          <t>Wm</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>phn</t>
+          <t>mica</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>phn</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pg</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,19 +1228,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>chl</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>chl</t>
+          <t>wm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>chl</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>ch</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>chlorite</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>chlorite</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Chl</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,19 +1300,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>cd</t>
+          <t>Chl</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>crd</t>
+          <t>chl</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>crd</t>
+          <t>cd</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>crd</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,19 +1336,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ctd</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ctd</t>
+          <t>crd</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cld</t>
+          <t>ctd</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ct</t>
+          <t>cld</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ctd</t>
+          <t>ct</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cld</t>
+          <t>Ctd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,31 +1396,31 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>Cld</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>ctd</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>St</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>ctd</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>staurolite</t>
+          <t>st</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Stau</t>
+          <t>St</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>stau</t>
+          <t>staurolite</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>Stau</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,31 +1468,31 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>stau</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>st</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cal</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>st</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>calcite</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>cal</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DOL</t>
+          <t>calcite</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dol</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>dol</t>
+          <t>DOL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ank</t>
+          <t>Dol</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ank</t>
+          <t>dol</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,79 +1576,79 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>chum</t>
+          <t>Ank</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>chum</t>
+          <t>cc</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cor</t>
+          <t>ank</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cor</t>
+          <t>cc</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cor</t>
+          <t>cc</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>chum</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>chum</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zo</t>
+          <t>cor</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>cor</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>czo</t>
+          <t>co</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>cor</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>fe-ep</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>epidote</t>
+          <t>zo</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>czo</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Zo</t>
+          <t>fe-ep</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,43 +1696,43 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>aln</t>
+          <t>epidote</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>aln</t>
+          <t>ep</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>e</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>aln</t>
+          <t>ep</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>allanite</t>
+          <t>Zo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>aln</t>
+          <t>ep</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Aln</t>
+          <t>aln</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,55 +1744,55 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>all</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>aln</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>allanite</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>fsp</t>
+          <t>aln</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Aln</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>fsp</t>
+          <t>aln</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>fsp</t>
+          <t>ep</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>Ab</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pl</t>
+          <t>an</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>fd</t>
+          <t>An</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fds</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>fds</t>
+          <t>Pl</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>feld</t>
+          <t>fd</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>kfs</t>
+          <t>Fds</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>feldspar</t>
+          <t>fds</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>albite</t>
+          <t>feld</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>plagioclase</t>
+          <t>kfs</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>fp</t>
+          <t>feldspar</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,490 +1936,646 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>il</t>
+          <t>albite</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ilm</t>
+          <t>fsp</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ilm</t>
+          <t>plagioclase</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ilm</t>
+          <t>fsp</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Rt</t>
+          <t>fp</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>fsp</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>fsp</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>il</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>ilm</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>rutile</t>
+          <t>ilm</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>ilm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>ilm</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>spinel</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>leuc</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sp</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>neph</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>spl</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>perov</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>Rt</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>rt</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>opq</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>rt</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>opaque</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>rt</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mnz</t>
+          <t>rutile</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>mnz</t>
+          <t>rt</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MNZ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mnz</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mnz</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>mnz</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>monazite</t>
+          <t>Sa</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mnz</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Zrc</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>sp</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>spinel</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>sp</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>zrn</t>
+          <t>Sp</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>sp</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>zr</t>
+          <t>spl</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>sp</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>zircon</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>sp</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ZC</t>
+          <t>op</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>op</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>zc</t>
+          <t>opq</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>zrc</t>
+          <t>op</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>pmp</t>
+          <t>opaque</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>pump</t>
+          <t>op</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>pump</t>
+          <t>mnz</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>pump</t>
+          <t>mnz</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MNZ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ttn</t>
+          <t>mnz</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ttn</t>
+          <t>Mnz</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ttn</t>
+          <t>mnz</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>titanite</t>
+          <t>monazite</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ttn</t>
+          <t>mnz</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>Zrc</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>OL</t>
+          <t>zrc</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fo</t>
+          <t>zrn</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>fa</t>
+          <t>zr</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>zircon</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>mel</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>ZC</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mel</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tourmaline</t>
+          <t>zc</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>zrc</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>pmp</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>pump</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>turm</t>
+          <t>pump</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>pump</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tormalina</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>ttn</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>torm</t>
+          <t>ttn</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>tur</t>
+          <t>ttn</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>titanite</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ttn</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ol</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ol</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ol</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>fo</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ol</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ol</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>mel</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>mel</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>tourmaline</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>turm</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>tormalina</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>torm</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>tur</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>xx</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>XX</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>xx</t>
         </is>
